--- a/docs/曲線と接線の計算用.xlsx
+++ b/docs/曲線と接線の計算用.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwatanabe20\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rwatanabe20\practice_containers\curve_reconstruction\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F4F45F-468F-4E9B-A712-8E4930148390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8AE009-367A-40CC-B979-AC822ED6BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D9833B5-58F5-4C52-956F-3B5EBD0F4255}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I10" si="2">D7</f>
+        <f t="shared" ref="I7:I9" si="2">D7</f>
         <v>-2</v>
       </c>
       <c r="J7" t="s">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L10" si="3">-A7*D7+B7</f>
+        <f t="shared" ref="L7:L9" si="3">-A7*D7+B7</f>
         <v>10.25</v>
       </c>
       <c r="N7" s="1">
@@ -777,22 +777,22 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3.8400000000000007</v>
+        <v>2.0100000000000007</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>-5.8</v>
+        <v>-6.4</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:I24" si="8">D10</f>
-        <v>-5.8</v>
+        <v>-6.4</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
@@ -802,23 +802,23 @@
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L24" si="9">-A10*D10+B10</f>
-        <v>11.96</v>
+        <v>12.89</v>
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>5.0000000000000009</v>
+        <v>3.2899999999999991</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>1.5999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>2.6800000000000015</v>
+        <v>0.73000000000000043</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
